--- a/order.xlsx
+++ b/order.xlsx
@@ -12,12 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="64">
   <si>
     <t>Purchase Order #:</t>
   </si>
   <si>
-    <t>1019267</t>
+    <t>1019295</t>
   </si>
   <si>
     <t>Vendor:</t>
@@ -29,7 +29,7 @@
     <t>Created :</t>
   </si>
   <si>
-    <t>2021-01-20 10:14:10</t>
+    <t>2021-01-22 10:59:54</t>
   </si>
   <si>
     <t>Contact Person:</t>
@@ -50,7 +50,7 @@
     <t>Destination:</t>
   </si>
   <si>
-    <t>REX</t>
+    <t>DEX</t>
   </si>
   <si>
     <t>Email:</t>
@@ -83,21 +83,102 @@
     <t>4</t>
   </si>
   <si>
-    <t>4231150503800</t>
-  </si>
-  <si>
-    <t>STRIP ADHESIVE WATER PROOF 2.5X7.2CM</t>
+    <t>4214252300300</t>
+  </si>
+  <si>
+    <t>SYRINGE 3ML LUER LOCK TIP-G 23 X1.25</t>
   </si>
   <si>
     <t>6</t>
   </si>
   <si>
+    <t>4231151200100</t>
+  </si>
+  <si>
+    <t>GAUZE SWAB 10X10CM 12 PLY STERILE</t>
+  </si>
+  <si>
+    <t>4229542200100</t>
+  </si>
+  <si>
+    <t>WIPES SKIN PREPARATION CHLORHEXIDINE</t>
+  </si>
+  <si>
+    <t>4214150100100</t>
+  </si>
+  <si>
+    <t>COTTON BALL 250GM-PACKING: 250BALL/PACK</t>
+  </si>
+  <si>
+    <t>4231151202900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gauze SWAB 5X5 CM </t>
+  </si>
+  <si>
     <t>4214252308200</t>
   </si>
   <si>
     <t>K1 AUTO DISABLE SAFETY SYRINGES STERILE 1 ML WITH NEEDLE 25X1</t>
   </si>
   <si>
+    <t>4618180400000</t>
+  </si>
+  <si>
+    <t>GOGGLES ANTI-FOG FEATURE SINGLE USE</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>4213220300000</t>
+  </si>
+  <si>
+    <t>EXAMINATION LATEX GLOVES SIZE M</t>
+  </si>
+  <si>
+    <t>4213220300100</t>
+  </si>
+  <si>
+    <t>EXAMINATION LATEX GLOVES SIZE S</t>
+  </si>
+  <si>
+    <t>4713150200800</t>
+  </si>
+  <si>
+    <t>WIPE DISINFECTANT ALCOHOL FREE</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>4218220500400</t>
+  </si>
+  <si>
+    <t>PLASTIC COVER FOR ELECTRONIC THERMOMETER</t>
+  </si>
+  <si>
+    <t>4213161100000</t>
+  </si>
+  <si>
+    <t>Head Covers</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>4228160310100</t>
+  </si>
+  <si>
+    <t>ALCOHOL GEL WALL MOUNTED</t>
+  </si>
+  <si>
+    <t>4228160310200</t>
+  </si>
+  <si>
+    <t>ALCOHOL GEL- DESKTOP DISPENSER</t>
+  </si>
+  <si>
     <t>4231150502900</t>
   </si>
   <si>
@@ -107,49 +188,22 @@
     <t>3</t>
   </si>
   <si>
+    <t>4231150503000</t>
+  </si>
+  <si>
+    <t>TAPE ZINC OXIDE SELF ADHESIVE 5CMX9M</t>
+  </si>
+  <si>
+    <t>4231150503100</t>
+  </si>
+  <si>
+    <t>TAPE ZINC OXIDE SELF ADHESIVE 7.5CMX9M</t>
+  </si>
+  <si>
     <t>4231150503500</t>
   </si>
   <si>
     <t>TAPE POROUS ADHE TRANSLUCENT 2.5CMX9M</t>
-  </si>
-  <si>
-    <t>4213161100000</t>
-  </si>
-  <si>
-    <t>Head Covers</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>4213220300000</t>
-  </si>
-  <si>
-    <t>EXAMINATION LATEX GLOVES SIZE M</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>4228160310200</t>
-  </si>
-  <si>
-    <t>ALCOHOL GEL- DESKTOP DISPENSER</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>4228160310100</t>
-  </si>
-  <si>
-    <t>ALCOHOL GEL WALL MOUNTED</t>
-  </si>
-  <si>
-    <t>5115170300300</t>
-  </si>
-  <si>
-    <t>EPINEPHRINE 300 MCG (1:1000) AUTO-INJECTOR FOR ADULT</t>
   </si>
 </sst>
 </file>
@@ -157,7 +211,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -167,12 +221,17 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <sz val="16.0"/>
+      <sz val="14.0"/>
       <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
       <sz val="14.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -183,7 +242,7 @@
       <patternFill patternType="darkGray"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -191,14 +250,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -211,11 +291,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="25.3046875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="80.55859375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="22.57421875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="50.234375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="9.46484375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="22.140625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="69.05078125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="19.75390625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="43.95703125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="8.28125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -275,291 +355,306 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="1">
+      <c r="A6" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="B6" t="s" s="1">
+      <c r="B6" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="C6" t="s" s="1">
+      <c r="C6" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="D6" t="s" s="1">
+      <c r="D6" t="s" s="2">
         <v>18</v>
       </c>
-      <c r="E6" t="s" s="1">
+      <c r="E6" t="s" s="2">
         <v>19</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s" s="2">
+      <c r="A7" t="s" s="3">
         <v>20</v>
       </c>
-      <c r="B7" t="s" s="2">
+      <c r="B7" t="s" s="3">
         <v>21</v>
       </c>
-      <c r="C7" t="s" s="2">
+      <c r="C7" t="s" s="3">
         <v>22</v>
       </c>
-      <c r="D7" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E7" s="2"/>
+      <c r="D7" t="n" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="E7" s="3"/>
     </row>
     <row r="8">
-      <c r="A8" t="s" s="2">
+      <c r="A8" t="s" s="3">
         <v>23</v>
       </c>
-      <c r="B8" t="s" s="2">
+      <c r="B8" t="s" s="3">
         <v>24</v>
       </c>
-      <c r="C8" t="s" s="2">
+      <c r="C8" t="s" s="3">
         <v>25</v>
       </c>
-      <c r="D8" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E8" s="2"/>
+      <c r="D8" t="n" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="E8" s="3"/>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="2">
+      <c r="A9" t="s" s="3">
         <v>26</v>
       </c>
-      <c r="B9" t="s" s="2">
+      <c r="B9" t="s" s="3">
         <v>27</v>
       </c>
-      <c r="C9" t="s" s="2">
+      <c r="C9" t="s" s="3">
         <v>25</v>
       </c>
-      <c r="D9" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E9" s="2"/>
+      <c r="D9" t="n" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="E9" s="3"/>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="2">
+      <c r="A10" t="s" s="3">
         <v>28</v>
       </c>
-      <c r="B10" t="s" s="2">
+      <c r="B10" t="s" s="3">
         <v>29</v>
       </c>
-      <c r="C10" t="s" s="2">
+      <c r="C10" t="s" s="3">
+        <v>25</v>
+      </c>
+      <c r="D10" t="n" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="3">
         <v>30</v>
       </c>
-      <c r="D10" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="2">
+      <c r="B11" t="s" s="3">
         <v>31</v>
       </c>
-      <c r="B11" t="s" s="2">
+      <c r="C11" t="s" s="3">
+        <v>25</v>
+      </c>
+      <c r="D11" t="n" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="3">
         <v>32</v>
       </c>
-      <c r="C11" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="D11" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="2">
+      <c r="B12" t="s" s="3">
         <v>33</v>
       </c>
-      <c r="B12" t="s" s="2">
+      <c r="C12" t="s" s="3">
+        <v>25</v>
+      </c>
+      <c r="D12" t="n" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="3">
         <v>34</v>
       </c>
-      <c r="C12" t="s" s="2">
+      <c r="B13" t="s" s="3">
         <v>35</v>
       </c>
-      <c r="D12" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="2">
+      <c r="C13" t="s" s="3">
+        <v>25</v>
+      </c>
+      <c r="D13" t="n" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="3">
         <v>36</v>
       </c>
-      <c r="B13" t="s" s="2">
+      <c r="B14" t="s" s="3">
         <v>37</v>
       </c>
-      <c r="C13" t="s" s="2">
+      <c r="C14" t="s" s="3">
         <v>38</v>
       </c>
-      <c r="D13" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="2">
+      <c r="D14" t="n" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="3">
         <v>39</v>
       </c>
-      <c r="B14" t="s" s="2">
+      <c r="B15" t="s" s="3">
         <v>40</v>
       </c>
-      <c r="C14" t="s" s="2">
+      <c r="C15" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="D15" t="n" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="3">
         <v>41</v>
       </c>
-      <c r="D14" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="2">
+      <c r="B16" t="s" s="3">
         <v>42</v>
       </c>
-      <c r="B15" t="s" s="2">
+      <c r="C16" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="D16" t="n" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="3">
         <v>43</v>
       </c>
-      <c r="C15" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="D15" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
+      <c r="B17" t="s" s="3">
         <v>44</v>
       </c>
-      <c r="B16" t="s" s="2">
+      <c r="C17" t="s" s="3">
         <v>45</v>
       </c>
-      <c r="C16" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="D16" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="B17" t="s" s="2">
+      <c r="D17" t="n" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="3">
+        <v>46</v>
+      </c>
+      <c r="B18" t="s" s="3">
+        <v>47</v>
+      </c>
+      <c r="C18" t="s" s="3">
         <v>45</v>
       </c>
-      <c r="C17" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="D17" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="B18" t="s" s="2">
+      <c r="D18" t="n" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="3">
+        <v>48</v>
+      </c>
+      <c r="B19" t="s" s="3">
+        <v>49</v>
+      </c>
+      <c r="C19" t="s" s="3">
+        <v>50</v>
+      </c>
+      <c r="D19" t="n" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="3">
+        <v>51</v>
+      </c>
+      <c r="B20" t="s" s="3">
+        <v>52</v>
+      </c>
+      <c r="C20" t="s" s="3">
+        <v>50</v>
+      </c>
+      <c r="D20" t="n" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="3">
+        <v>53</v>
+      </c>
+      <c r="B21" t="s" s="3">
+        <v>54</v>
+      </c>
+      <c r="C21" t="s" s="3">
         <v>45</v>
       </c>
-      <c r="C18" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="D18" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="C19" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="D19" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="C20" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="D20" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="C21" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="D21" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E21" s="2"/>
+      <c r="D21" t="n" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="E21" s="3"/>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="C22" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="D22" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E22" s="2"/>
+      <c r="A22" t="s" s="3">
+        <v>55</v>
+      </c>
+      <c r="B22" t="s" s="3">
+        <v>56</v>
+      </c>
+      <c r="C22" t="s" s="3">
+        <v>57</v>
+      </c>
+      <c r="D22" t="n" s="3">
+        <v>190.0</v>
+      </c>
+      <c r="E22" s="3"/>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="C23" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="D23" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E23" s="2"/>
+      <c r="A23" t="s" s="3">
+        <v>58</v>
+      </c>
+      <c r="B23" t="s" s="3">
+        <v>59</v>
+      </c>
+      <c r="C23" t="s" s="3">
+        <v>57</v>
+      </c>
+      <c r="D23" t="n" s="3">
+        <v>232.0</v>
+      </c>
+      <c r="E23" s="3"/>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="C24" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="D24" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E24" s="2"/>
+      <c r="A24" t="s" s="3">
+        <v>60</v>
+      </c>
+      <c r="B24" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="C24" t="s" s="3">
+        <v>57</v>
+      </c>
+      <c r="D24" t="n" s="3">
+        <v>190.0</v>
+      </c>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="3">
+        <v>62</v>
+      </c>
+      <c r="B25" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="C25" t="s" s="3">
+        <v>57</v>
+      </c>
+      <c r="D25" t="n" s="3">
+        <v>190.0</v>
+      </c>
+      <c r="E25" s="3"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/order.xlsx
+++ b/order.xlsx
@@ -17,7 +17,7 @@
     <t>Purchase Order #:</t>
   </si>
   <si>
-    <t>1155661</t>
+    <t>1155711</t>
   </si>
   <si>
     <t>Vendor:</t>
@@ -29,7 +29,7 @@
     <t>Created :</t>
   </si>
   <si>
-    <t>2021-01-20 11:19:05</t>
+    <t>2021-01-21 09:42:56</t>
   </si>
   <si>
     <t>Contact Person:</t>
@@ -455,7 +455,7 @@
         <v>22</v>
       </c>
       <c r="D7" t="n" s="2">
-        <v>25.0</v>
+        <v>250.0</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -470,7 +470,7 @@
         <v>22</v>
       </c>
       <c r="D8" t="n" s="2">
-        <v>25.0</v>
+        <v>250.0</v>
       </c>
       <c r="E8" s="2"/>
     </row>
@@ -485,7 +485,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="n" s="2">
-        <v>25.0</v>
+        <v>250.0</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -500,7 +500,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="n" s="2">
-        <v>25.0</v>
+        <v>250.0</v>
       </c>
       <c r="E10" s="2"/>
     </row>
@@ -515,7 +515,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="n" s="2">
-        <v>25.0</v>
+        <v>250.0</v>
       </c>
       <c r="E11" s="2"/>
     </row>
@@ -530,7 +530,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="n" s="2">
-        <v>25.0</v>
+        <v>250.0</v>
       </c>
       <c r="E12" s="2"/>
     </row>
@@ -545,7 +545,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="n" s="2">
-        <v>25.0</v>
+        <v>250.0</v>
       </c>
       <c r="E13" s="2"/>
     </row>
@@ -560,7 +560,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="n" s="2">
-        <v>25.0</v>
+        <v>250.0</v>
       </c>
       <c r="E14" s="2"/>
     </row>
@@ -575,7 +575,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="n" s="2">
-        <v>25.0</v>
+        <v>250.0</v>
       </c>
       <c r="E15" s="2"/>
     </row>
@@ -590,7 +590,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="n" s="2">
-        <v>25.0</v>
+        <v>250.0</v>
       </c>
       <c r="E16" s="2"/>
     </row>
@@ -605,7 +605,7 @@
         <v>27</v>
       </c>
       <c r="D17" t="n" s="2">
-        <v>25.0</v>
+        <v>250.0</v>
       </c>
       <c r="E17" s="2"/>
     </row>
@@ -620,7 +620,7 @@
         <v>46</v>
       </c>
       <c r="D18" t="n" s="2">
-        <v>25.0</v>
+        <v>250.0</v>
       </c>
       <c r="E18" s="2"/>
     </row>
@@ -635,7 +635,7 @@
         <v>46</v>
       </c>
       <c r="D19" t="n" s="2">
-        <v>25.0</v>
+        <v>250.0</v>
       </c>
       <c r="E19" s="2"/>
     </row>
@@ -650,7 +650,7 @@
         <v>46</v>
       </c>
       <c r="D20" t="n" s="2">
-        <v>25.0</v>
+        <v>250.0</v>
       </c>
       <c r="E20" s="2"/>
     </row>
@@ -665,7 +665,7 @@
         <v>46</v>
       </c>
       <c r="D21" t="n" s="2">
-        <v>25.0</v>
+        <v>250.0</v>
       </c>
       <c r="E21" s="2"/>
     </row>
@@ -680,7 +680,7 @@
         <v>46</v>
       </c>
       <c r="D22" t="n" s="2">
-        <v>25.0</v>
+        <v>250.0</v>
       </c>
       <c r="E22" s="2"/>
     </row>
@@ -695,7 +695,7 @@
         <v>46</v>
       </c>
       <c r="D23" t="n" s="2">
-        <v>25.0</v>
+        <v>250.0</v>
       </c>
       <c r="E23" s="2"/>
     </row>
@@ -710,7 +710,7 @@
         <v>46</v>
       </c>
       <c r="D24" t="n" s="2">
-        <v>25.0</v>
+        <v>250.0</v>
       </c>
       <c r="E24" s="2"/>
     </row>
@@ -725,7 +725,7 @@
         <v>61</v>
       </c>
       <c r="D25" t="n" s="2">
-        <v>25.0</v>
+        <v>250.0</v>
       </c>
       <c r="E25" s="2"/>
     </row>
@@ -740,7 +740,7 @@
         <v>61</v>
       </c>
       <c r="D26" t="n" s="2">
-        <v>25.0</v>
+        <v>250.0</v>
       </c>
       <c r="E26" s="2"/>
     </row>
@@ -755,7 +755,7 @@
         <v>61</v>
       </c>
       <c r="D27" t="n" s="2">
-        <v>25.0</v>
+        <v>250.0</v>
       </c>
       <c r="E27" s="2"/>
     </row>
@@ -770,7 +770,7 @@
         <v>61</v>
       </c>
       <c r="D28" t="n" s="2">
-        <v>25.0</v>
+        <v>250.0</v>
       </c>
       <c r="E28" s="2"/>
     </row>
@@ -785,7 +785,7 @@
         <v>70</v>
       </c>
       <c r="D29" t="n" s="2">
-        <v>25.0</v>
+        <v>250.0</v>
       </c>
       <c r="E29" s="2"/>
     </row>
@@ -800,7 +800,7 @@
         <v>73</v>
       </c>
       <c r="D30" t="n" s="2">
-        <v>25.0</v>
+        <v>250.0</v>
       </c>
       <c r="E30" s="2"/>
     </row>
@@ -815,7 +815,7 @@
         <v>73</v>
       </c>
       <c r="D31" t="n" s="2">
-        <v>25.0</v>
+        <v>250.0</v>
       </c>
       <c r="E31" s="2"/>
     </row>
@@ -830,7 +830,7 @@
         <v>78</v>
       </c>
       <c r="D32" t="n" s="2">
-        <v>25.0</v>
+        <v>250.0</v>
       </c>
       <c r="E32" s="2"/>
     </row>
@@ -845,7 +845,7 @@
         <v>70</v>
       </c>
       <c r="D33" t="n" s="2">
-        <v>25.0</v>
+        <v>250.0</v>
       </c>
       <c r="E33" s="2"/>
     </row>
@@ -860,7 +860,7 @@
         <v>73</v>
       </c>
       <c r="D34" t="n" s="2">
-        <v>25.0</v>
+        <v>250.0</v>
       </c>
       <c r="E34" s="2"/>
     </row>
@@ -875,7 +875,7 @@
         <v>73</v>
       </c>
       <c r="D35" t="n" s="2">
-        <v>25.0</v>
+        <v>250.0</v>
       </c>
       <c r="E35" s="2"/>
     </row>
@@ -890,7 +890,7 @@
         <v>73</v>
       </c>
       <c r="D36" t="n" s="2">
-        <v>25.0</v>
+        <v>250.0</v>
       </c>
       <c r="E36" s="2"/>
     </row>
@@ -905,7 +905,7 @@
         <v>73</v>
       </c>
       <c r="D37" t="n" s="2">
-        <v>25.0</v>
+        <v>250.0</v>
       </c>
       <c r="E37" s="2"/>
     </row>
@@ -920,7 +920,7 @@
         <v>73</v>
       </c>
       <c r="D38" t="n" s="2">
-        <v>25.0</v>
+        <v>250.0</v>
       </c>
       <c r="E38" s="2"/>
     </row>
@@ -935,7 +935,7 @@
         <v>73</v>
       </c>
       <c r="D39" t="n" s="2">
-        <v>25.0</v>
+        <v>250.0</v>
       </c>
       <c r="E39" s="2"/>
     </row>
@@ -950,7 +950,7 @@
         <v>73</v>
       </c>
       <c r="D40" t="n" s="2">
-        <v>25.0</v>
+        <v>250.0</v>
       </c>
       <c r="E40" s="2"/>
     </row>
@@ -965,7 +965,7 @@
         <v>73</v>
       </c>
       <c r="D41" t="n" s="2">
-        <v>25.0</v>
+        <v>250.0</v>
       </c>
       <c r="E41" s="2"/>
     </row>

--- a/order.xlsx
+++ b/order.xlsx
@@ -17,7 +17,7 @@
     <t>Purchase Order #:</t>
   </si>
   <si>
-    <t>1019319</t>
+    <t>1019705</t>
   </si>
   <si>
     <t>Vendor:</t>
@@ -29,7 +29,7 @@
     <t>Created :</t>
   </si>
   <si>
-    <t>2021-01-25 12:21:50</t>
+    <t>2021-01-26 03:21:40</t>
   </si>
   <si>
     <t>Contact Person:</t>
@@ -328,7 +328,7 @@
         <v>22</v>
       </c>
       <c r="D7" t="n" s="3">
-        <v>250.0</v>
+        <v>0.0</v>
       </c>
       <c r="E7" s="3"/>
     </row>
@@ -343,7 +343,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="n" s="3">
-        <v>250.0</v>
+        <v>0.0</v>
       </c>
       <c r="E8" s="3"/>
     </row>
@@ -358,7 +358,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="n" s="3">
-        <v>250.0</v>
+        <v>0.0</v>
       </c>
       <c r="E9" s="3"/>
     </row>
@@ -373,7 +373,7 @@
         <v>30</v>
       </c>
       <c r="D10" t="n" s="3">
-        <v>106.0</v>
+        <v>0.0</v>
       </c>
       <c r="E10" s="3"/>
     </row>
@@ -388,7 +388,7 @@
         <v>30</v>
       </c>
       <c r="D11" t="n" s="3">
-        <v>118.0</v>
+        <v>0.0</v>
       </c>
       <c r="E11" s="3"/>
     </row>
@@ -403,7 +403,7 @@
         <v>35</v>
       </c>
       <c r="D12" t="n" s="3">
-        <v>250.0</v>
+        <v>0.0</v>
       </c>
       <c r="E12" s="3"/>
     </row>
@@ -418,7 +418,7 @@
         <v>38</v>
       </c>
       <c r="D13" t="n" s="3">
-        <v>250.0</v>
+        <v>0.0</v>
       </c>
       <c r="E13" s="3"/>
     </row>
@@ -433,7 +433,7 @@
         <v>41</v>
       </c>
       <c r="D14" t="n" s="3">
-        <v>123.0</v>
+        <v>0.0</v>
       </c>
       <c r="E14" s="3"/>
     </row>
@@ -448,7 +448,7 @@
         <v>35</v>
       </c>
       <c r="D15" t="n" s="3">
-        <v>164.0</v>
+        <v>0.0</v>
       </c>
       <c r="E15" s="3"/>
     </row>
@@ -463,7 +463,7 @@
         <v>22</v>
       </c>
       <c r="D16" t="n" s="3">
-        <v>250.0</v>
+        <v>0.0</v>
       </c>
       <c r="E16" s="3"/>
     </row>
@@ -478,7 +478,7 @@
         <v>22</v>
       </c>
       <c r="D17" t="n" s="3">
-        <v>250.0</v>
+        <v>0.0</v>
       </c>
       <c r="E17" s="3"/>
     </row>
@@ -493,7 +493,7 @@
         <v>22</v>
       </c>
       <c r="D18" t="n" s="3">
-        <v>250.0</v>
+        <v>0.0</v>
       </c>
       <c r="E18" s="3"/>
     </row>
@@ -508,7 +508,7 @@
         <v>22</v>
       </c>
       <c r="D19" t="n" s="3">
-        <v>250.0</v>
+        <v>0.0</v>
       </c>
       <c r="E19" s="3"/>
     </row>
@@ -523,7 +523,7 @@
         <v>22</v>
       </c>
       <c r="D20" t="n" s="3">
-        <v>250.0</v>
+        <v>0.0</v>
       </c>
       <c r="E20" s="3"/>
     </row>
@@ -538,7 +538,7 @@
         <v>22</v>
       </c>
       <c r="D21" t="n" s="3">
-        <v>250.0</v>
+        <v>0.0</v>
       </c>
       <c r="E21" s="3"/>
     </row>
@@ -553,7 +553,7 @@
         <v>22</v>
       </c>
       <c r="D22" t="n" s="3">
-        <v>250.0</v>
+        <v>0.0</v>
       </c>
       <c r="E22" s="3"/>
     </row>
@@ -568,7 +568,7 @@
         <v>22</v>
       </c>
       <c r="D23" t="n" s="3">
-        <v>250.0</v>
+        <v>0.0</v>
       </c>
       <c r="E23" s="3"/>
     </row>
@@ -583,7 +583,7 @@
         <v>22</v>
       </c>
       <c r="D24" t="n" s="3">
-        <v>250.0</v>
+        <v>0.0</v>
       </c>
       <c r="E24" s="3"/>
     </row>

--- a/order.xlsx
+++ b/order.xlsx
@@ -12,12 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="46">
-  <si>
-    <t>Purchase Order #:</t>
-  </si>
-  <si>
-    <t>1019705</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="47">
+  <si>
+    <t>Order #:</t>
+  </si>
+  <si>
+    <t>1020967</t>
   </si>
   <si>
     <t>Vendor:</t>
@@ -29,7 +29,7 @@
     <t>Created :</t>
   </si>
   <si>
-    <t>2021-01-26 03:21:40</t>
+    <t>2021-01-26 06:13:44</t>
   </si>
   <si>
     <t>Contact Person:</t>
@@ -39,6 +39,9 @@
   </si>
   <si>
     <t>Due Date:</t>
+  </si>
+  <si>
+    <t>2021-01-31 06:13:44</t>
   </si>
   <si>
     <t>Mobile:</t>
@@ -237,7 +240,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="17.01171875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="69.05078125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="19.75390625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="43.95703125" customWidth="true" bestFit="true"/>
@@ -277,313 +280,313 @@
         <v>8</v>
       </c>
       <c r="B3" t="s" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s" s="3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7" t="n" s="3">
-        <v>0.0</v>
+        <v>250.0</v>
       </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s" s="3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s" s="3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="n" s="3">
-        <v>0.0</v>
+        <v>250.0</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="3">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s" s="3">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s" s="3">
         <v>26</v>
       </c>
-      <c r="B9" t="s" s="3">
-        <v>27</v>
-      </c>
-      <c r="C9" t="s" s="3">
-        <v>25</v>
-      </c>
       <c r="D9" t="n" s="3">
-        <v>0.0</v>
+        <v>250.0</v>
       </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s" s="3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s" s="3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D10" t="n" s="3">
-        <v>0.0</v>
+        <v>106.0</v>
       </c>
       <c r="E10" s="3"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="3">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s" s="3">
         <v>31</v>
       </c>
-      <c r="B11" t="s" s="3">
-        <v>32</v>
-      </c>
-      <c r="C11" t="s" s="3">
-        <v>30</v>
-      </c>
       <c r="D11" t="n" s="3">
-        <v>0.0</v>
+        <v>118.0</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="3">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s" s="3">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s" s="3">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D12" t="n" s="3">
-        <v>0.0</v>
+        <v>250.0</v>
       </c>
       <c r="E12" s="3"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="3">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s" s="3">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s" s="3">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D13" t="n" s="3">
-        <v>0.0</v>
+        <v>250.0</v>
       </c>
       <c r="E13" s="3"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="3">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s" s="3">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s" s="3">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" t="n" s="3">
-        <v>0.0</v>
+        <v>123.0</v>
       </c>
       <c r="E14" s="3"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="3">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s" s="3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s" s="3">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D15" t="n" s="3">
-        <v>0.0</v>
+        <v>164.0</v>
       </c>
       <c r="E15" s="3"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B16" t="s" s="3">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s" s="3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D16" t="n" s="3">
-        <v>0.0</v>
+        <v>250.0</v>
       </c>
       <c r="E16" s="3"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B17" t="s" s="3">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s" s="3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D17" t="n" s="3">
-        <v>0.0</v>
+        <v>250.0</v>
       </c>
       <c r="E17" s="3"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B18" t="s" s="3">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s" s="3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D18" t="n" s="3">
-        <v>0.0</v>
+        <v>250.0</v>
       </c>
       <c r="E18" s="3"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B19" t="s" s="3">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C19" t="s" s="3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D19" t="n" s="3">
-        <v>0.0</v>
+        <v>250.0</v>
       </c>
       <c r="E19" s="3"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B20" t="s" s="3">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C20" t="s" s="3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D20" t="n" s="3">
-        <v>0.0</v>
+        <v>250.0</v>
       </c>
       <c r="E20" s="3"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B21" t="s" s="3">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C21" t="s" s="3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D21" t="n" s="3">
-        <v>0.0</v>
+        <v>250.0</v>
       </c>
       <c r="E21" s="3"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B22" t="s" s="3">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C22" t="s" s="3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D22" t="n" s="3">
-        <v>0.0</v>
+        <v>250.0</v>
       </c>
       <c r="E22" s="3"/>
     </row>
     <row r="23">
       <c r="A23" t="s" s="3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B23" t="s" s="3">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C23" t="s" s="3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D23" t="n" s="3">
-        <v>0.0</v>
+        <v>250.0</v>
       </c>
       <c r="E23" s="3"/>
     </row>
     <row r="24">
       <c r="A24" t="s" s="3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B24" t="s" s="3">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C24" t="s" s="3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D24" t="n" s="3">
-        <v>0.0</v>
+        <v>250.0</v>
       </c>
       <c r="E24" s="3"/>
     </row>

--- a/order.xlsx
+++ b/order.xlsx
@@ -17,7 +17,7 @@
     <t>Order #:</t>
   </si>
   <si>
-    <t>1020967</t>
+    <t>1021799</t>
   </si>
   <si>
     <t>Vendor:</t>
@@ -29,7 +29,7 @@
     <t>Created :</t>
   </si>
   <si>
-    <t>2021-01-26 06:13:44</t>
+    <t>2021-01-26 11:17:12</t>
   </si>
   <si>
     <t>Contact Person:</t>
@@ -41,7 +41,7 @@
     <t>Due Date:</t>
   </si>
   <si>
-    <t>2021-01-31 06:13:44</t>
+    <t>2021-01-31 11:17:12</t>
   </si>
   <si>
     <t>Mobile:</t>

--- a/order.xlsx
+++ b/order.xlsx
@@ -12,12 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>Order #:</t>
   </si>
   <si>
-    <t>1160059</t>
+    <t>1160129</t>
   </si>
   <si>
     <t>Vendor:</t>
@@ -29,7 +29,7 @@
     <t>Created :</t>
   </si>
   <si>
-    <t>2021-01-27 09:25:36</t>
+    <t>2021-01-28 12:01:01</t>
   </si>
   <si>
     <t>Contact Person:</t>
@@ -41,7 +41,7 @@
     <t>Due Date:</t>
   </si>
   <si>
-    <t>2021-02-01 09:25:36</t>
+    <t>2021-02-02 12:01:01</t>
   </si>
   <si>
     <t>Mobile:</t>
@@ -77,19 +77,37 @@
     <t>UOM:</t>
   </si>
   <si>
-    <t>4231150503000</t>
-  </si>
-  <si>
-    <t>TAPE ZINC OXIDE SELF ADHESIVE 5CMX9M</t>
-  </si>
-  <si>
-    <t>Vaccine kit</t>
-  </si>
-  <si>
-    <t>4231150503100</t>
-  </si>
-  <si>
-    <t>TAPE ZINC OXIDE SELF ADHESIVE 7.5CMX9M</t>
+    <t>5115170300300</t>
+  </si>
+  <si>
+    <t>EPINEPHRINE 300 MCG (1:1000) AUTO-INJECTOR FOR ADULT</t>
+  </si>
+  <si>
+    <t>General Supplies</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>4618180400000</t>
+  </si>
+  <si>
+    <t>GOGGLES ANTI-FOG FEATURE SINGLE USE</t>
+  </si>
+  <si>
+    <t>PPE</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>4213161100200</t>
+  </si>
+  <si>
+    <t>CAP SURGEON BLUE OR GREEN HOOD TYPE TIE</t>
+  </si>
+  <si>
+    <t>each</t>
   </si>
 </sst>
 </file>
@@ -178,7 +196,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="17.01171875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="42.68359375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="60.59765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="19.75390625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="43.95703125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="8.28125" customWidth="true" bestFit="true"/>
@@ -268,24 +286,45 @@
         <v>23</v>
       </c>
       <c r="D7" t="n" s="3">
-        <v>202.0</v>
-      </c>
-      <c r="E7" s="3"/>
+        <v>73.0</v>
+      </c>
+      <c r="E7" t="s" s="3">
+        <v>24</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s" s="3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s" s="3">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D8" t="n" s="3">
-        <v>162.0</v>
-      </c>
-      <c r="E8" s="3"/>
+        <v>73.0</v>
+      </c>
+      <c r="E8" t="s" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="3">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s" s="3">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s" s="3">
+        <v>27</v>
+      </c>
+      <c r="D9" t="n" s="3">
+        <v>248.0</v>
+      </c>
+      <c r="E9" t="s" s="3">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/order.xlsx
+++ b/order.xlsx
@@ -12,12 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="65">
   <si>
     <t>Order #:</t>
   </si>
   <si>
-    <t>1160129</t>
+    <t>1021823</t>
   </si>
   <si>
     <t>Vendor:</t>
@@ -29,7 +29,7 @@
     <t>Created :</t>
   </si>
   <si>
-    <t>2021-01-28 12:01:01</t>
+    <t>2021-01-30 03:24:56</t>
   </si>
   <si>
     <t>Contact Person:</t>
@@ -41,7 +41,7 @@
     <t>Due Date:</t>
   </si>
   <si>
-    <t>2021-02-02 12:01:01</t>
+    <t>2021-02-04 03:24:56</t>
   </si>
   <si>
     <t>Mobile:</t>
@@ -53,7 +53,7 @@
     <t>Destination:</t>
   </si>
   <si>
-    <t>DEX</t>
+    <t>JEG</t>
   </si>
   <si>
     <t>Email:</t>
@@ -77,37 +77,136 @@
     <t>UOM:</t>
   </si>
   <si>
+    <t>5115170300100</t>
+  </si>
+  <si>
+    <t>EPINEPHRINE 150 MCG (FOR PEDIATRICS ANAPHYLACTIC SHOCK)</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>5115170300300</t>
   </si>
   <si>
     <t>EPINEPHRINE 300 MCG (1:1000) AUTO-INJECTOR FOR ADULT</t>
   </si>
   <si>
-    <t>General Supplies</t>
-  </si>
-  <si>
-    <t>PFS</t>
-  </si>
-  <si>
-    <t>4618180400000</t>
-  </si>
-  <si>
-    <t>GOGGLES ANTI-FOG FEATURE SINGLE USE</t>
-  </si>
-  <si>
-    <t>PPE</t>
-  </si>
-  <si>
-    <t>PC</t>
-  </si>
-  <si>
-    <t>4213161100200</t>
-  </si>
-  <si>
-    <t>CAP SURGEON BLUE OR GREEN HOOD TYPE TIE</t>
-  </si>
-  <si>
-    <t>each</t>
+    <t>4231154502100</t>
+  </si>
+  <si>
+    <t>BANDAGE NONADHESIVE 5X5CM WATER SOLUBLE</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>4229542200100</t>
+  </si>
+  <si>
+    <t>WIPES SKIN PREPARATION CHLORHEXIDINE</t>
+  </si>
+  <si>
+    <t>4231150503800</t>
+  </si>
+  <si>
+    <t>STRIP ADHESIVE WATER PROOF 2.5X7.2CM</t>
+  </si>
+  <si>
+    <t>4214150400800</t>
+  </si>
+  <si>
+    <t>SWAB MEDICATED 4X4CM 2% CLOROHEXIIDINE</t>
+  </si>
+  <si>
+    <t>4231151202900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gauze SWAB 5X5 CM </t>
+  </si>
+  <si>
+    <t>4214252308200</t>
+  </si>
+  <si>
+    <t>K1 AUTO DISABLE SAFETY SYRINGES STERILE 1 ML WITH NEEDLE 25X1</t>
+  </si>
+  <si>
+    <t>4618170200000</t>
+  </si>
+  <si>
+    <t>FACE SHIELD WRAP AROUND</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>4213220300000</t>
+  </si>
+  <si>
+    <t>EXAMINATION LATEX GLOVES SIZE M</t>
+  </si>
+  <si>
+    <t>4213220300100</t>
+  </si>
+  <si>
+    <t>EXAMINATION LATEX GLOVES SIZE S</t>
+  </si>
+  <si>
+    <t>4219181300000</t>
+  </si>
+  <si>
+    <t>PAPER-EXAM COUCH 60-80CM X30 YARD/ROLL</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>4231150502900</t>
+  </si>
+  <si>
+    <t>TAPE ZINC OXIDE SELF ADHESIVE 2.5CMX9M</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4231150503000</t>
+  </si>
+  <si>
+    <t>TAPE ZINC OXIDE SELF ADHESIVE 5CMX9M</t>
+  </si>
+  <si>
+    <t>4231150503100</t>
+  </si>
+  <si>
+    <t>TAPE ZINC OXIDE SELF ADHESIVE 7.5CMX9M</t>
+  </si>
+  <si>
+    <t>4231150503500</t>
+  </si>
+  <si>
+    <t>TAPE POROUS ADHE TRANSLUCENT 2.5CMX9M</t>
+  </si>
+  <si>
+    <t>4213161100000</t>
+  </si>
+  <si>
+    <t>Head Covers</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>4228160310100</t>
+  </si>
+  <si>
+    <t>ALCOHOL GEL WALL MOUNTED</t>
+  </si>
+  <si>
+    <t>4218220500400</t>
+  </si>
+  <si>
+    <t>PLASTIC COVER FOR ELECTRONIC THERMOMETER</t>
   </si>
 </sst>
 </file>
@@ -196,7 +295,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="17.01171875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="60.59765625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="69.05078125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="19.75390625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="43.95703125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="8.28125" customWidth="true" bestFit="true"/>
@@ -286,45 +385,279 @@
         <v>23</v>
       </c>
       <c r="D7" t="n" s="3">
-        <v>73.0</v>
-      </c>
-      <c r="E7" t="s" s="3">
-        <v>24</v>
-      </c>
+        <v>250.0</v>
+      </c>
+      <c r="E7" s="3"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="3">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s" s="3">
         <v>25</v>
       </c>
-      <c r="B8" t="s" s="3">
-        <v>26</v>
-      </c>
       <c r="C8" t="s" s="3">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D8" t="n" s="3">
-        <v>73.0</v>
-      </c>
-      <c r="E8" t="s" s="3">
-        <v>28</v>
-      </c>
+        <v>250.0</v>
+      </c>
+      <c r="E8" s="3"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s" s="3">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s" s="3">
+        <v>28</v>
+      </c>
+      <c r="D9" t="n" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="3">
         <v>29</v>
       </c>
-      <c r="B9" t="s" s="3">
+      <c r="B10" t="s" s="3">
         <v>30</v>
       </c>
-      <c r="C9" t="s" s="3">
-        <v>27</v>
-      </c>
-      <c r="D9" t="n" s="3">
-        <v>248.0</v>
-      </c>
-      <c r="E9" t="s" s="3">
+      <c r="C10" t="s" s="3">
+        <v>28</v>
+      </c>
+      <c r="D10" t="n" s="3">
+        <v>124.0</v>
+      </c>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="3">
         <v>31</v>
       </c>
+      <c r="B11" t="s" s="3">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s" s="3">
+        <v>28</v>
+      </c>
+      <c r="D11" t="n" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s" s="3">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s" s="3">
+        <v>28</v>
+      </c>
+      <c r="D12" t="n" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s" s="3">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s" s="3">
+        <v>28</v>
+      </c>
+      <c r="D13" t="n" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="3">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s" s="3">
+        <v>28</v>
+      </c>
+      <c r="D14" t="n" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="3">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s" s="3">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s" s="3">
+        <v>41</v>
+      </c>
+      <c r="D15" t="n" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="3">
+        <v>42</v>
+      </c>
+      <c r="B16" t="s" s="3">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s" s="3">
+        <v>41</v>
+      </c>
+      <c r="D16" t="n" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="3">
+        <v>44</v>
+      </c>
+      <c r="B17" t="s" s="3">
+        <v>45</v>
+      </c>
+      <c r="C17" t="s" s="3">
+        <v>41</v>
+      </c>
+      <c r="D17" t="n" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="3">
+        <v>46</v>
+      </c>
+      <c r="B18" t="s" s="3">
+        <v>47</v>
+      </c>
+      <c r="C18" t="s" s="3">
+        <v>48</v>
+      </c>
+      <c r="D18" t="n" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="3">
+        <v>49</v>
+      </c>
+      <c r="B19" t="s" s="3">
+        <v>50</v>
+      </c>
+      <c r="C19" t="s" s="3">
+        <v>51</v>
+      </c>
+      <c r="D19" t="n" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="3">
+        <v>52</v>
+      </c>
+      <c r="B20" t="s" s="3">
+        <v>53</v>
+      </c>
+      <c r="C20" t="s" s="3">
+        <v>51</v>
+      </c>
+      <c r="D20" t="n" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="3">
+        <v>54</v>
+      </c>
+      <c r="B21" t="s" s="3">
+        <v>55</v>
+      </c>
+      <c r="C21" t="s" s="3">
+        <v>51</v>
+      </c>
+      <c r="D21" t="n" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="3">
+        <v>56</v>
+      </c>
+      <c r="B22" t="s" s="3">
+        <v>57</v>
+      </c>
+      <c r="C22" t="s" s="3">
+        <v>51</v>
+      </c>
+      <c r="D22" t="n" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="3">
+        <v>58</v>
+      </c>
+      <c r="B23" t="s" s="3">
+        <v>59</v>
+      </c>
+      <c r="C23" t="s" s="3">
+        <v>60</v>
+      </c>
+      <c r="D23" t="n" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="B24" t="s" s="3">
+        <v>62</v>
+      </c>
+      <c r="C24" t="s" s="3">
+        <v>60</v>
+      </c>
+      <c r="D24" t="n" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="B25" t="s" s="3">
+        <v>64</v>
+      </c>
+      <c r="C25" t="s" s="3">
+        <v>48</v>
+      </c>
+      <c r="D25" t="n" s="3">
+        <v>181.0</v>
+      </c>
+      <c r="E25" s="3"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/order.xlsx
+++ b/order.xlsx
@@ -12,12 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Order #:</t>
   </si>
   <si>
-    <t>1160129</t>
+    <t>1160277</t>
   </si>
   <si>
     <t>Vendor:</t>
@@ -29,7 +29,7 @@
     <t>Created :</t>
   </si>
   <si>
-    <t>2021-01-28 12:01:01</t>
+    <t>2021-01-30 12:40:52</t>
   </si>
   <si>
     <t>Contact Person:</t>
@@ -41,7 +41,7 @@
     <t>Due Date:</t>
   </si>
   <si>
-    <t>2021-02-02 12:01:01</t>
+    <t>2021-02-04 12:40:52</t>
   </si>
   <si>
     <t>Mobile:</t>
@@ -53,7 +53,7 @@
     <t>Destination:</t>
   </si>
   <si>
-    <t>DEX</t>
+    <t>REX</t>
   </si>
   <si>
     <t>Email:</t>
@@ -77,37 +77,13 @@
     <t>UOM:</t>
   </si>
   <si>
-    <t>5115170300300</t>
-  </si>
-  <si>
-    <t>EPINEPHRINE 300 MCG (1:1000) AUTO-INJECTOR FOR ADULT</t>
-  </si>
-  <si>
-    <t>General Supplies</t>
-  </si>
-  <si>
-    <t>PFS</t>
-  </si>
-  <si>
-    <t>4618180400000</t>
-  </si>
-  <si>
-    <t>GOGGLES ANTI-FOG FEATURE SINGLE USE</t>
-  </si>
-  <si>
-    <t>PPE</t>
-  </si>
-  <si>
-    <t>PC</t>
-  </si>
-  <si>
-    <t>4213161100200</t>
-  </si>
-  <si>
-    <t>CAP SURGEON BLUE OR GREEN HOOD TYPE TIE</t>
-  </si>
-  <si>
-    <t>each</t>
+    <t>PFIZER_COVID-19</t>
+  </si>
+  <si>
+    <t>Pfizer covid-19 vaccine</t>
+  </si>
+  <si>
+    <t>Covid Vaccine</t>
   </si>
 </sst>
 </file>
@@ -196,7 +172,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="17.01171875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="60.59765625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="25.19921875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="19.75390625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="43.95703125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="8.28125" customWidth="true" bestFit="true"/>
@@ -286,45 +262,9 @@
         <v>23</v>
       </c>
       <c r="D7" t="n" s="3">
-        <v>73.0</v>
-      </c>
-      <c r="E7" t="s" s="3">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="3">
-        <v>25</v>
-      </c>
-      <c r="B8" t="s" s="3">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s" s="3">
-        <v>27</v>
-      </c>
-      <c r="D8" t="n" s="3">
-        <v>73.0</v>
-      </c>
-      <c r="E8" t="s" s="3">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="3">
-        <v>29</v>
-      </c>
-      <c r="B9" t="s" s="3">
-        <v>30</v>
-      </c>
-      <c r="C9" t="s" s="3">
-        <v>27</v>
-      </c>
-      <c r="D9" t="n" s="3">
-        <v>248.0</v>
-      </c>
-      <c r="E9" t="s" s="3">
-        <v>31</v>
-      </c>
+        <v>1410.0</v>
+      </c>
+      <c r="E7" s="3"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/order.xlsx
+++ b/order.xlsx
@@ -12,12 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Order #:</t>
   </si>
   <si>
-    <t>1160287</t>
+    <t>1047014</t>
   </si>
   <si>
     <t>Vendor:</t>
@@ -29,7 +29,7 @@
     <t>Created :</t>
   </si>
   <si>
-    <t>2021-01-31 11:08:59</t>
+    <t>2021-01-31 10:46:55</t>
   </si>
   <si>
     <t>Contact Person:</t>
@@ -41,7 +41,7 @@
     <t>Due Date:</t>
   </si>
   <si>
-    <t>2021-02-05 11:08:59</t>
+    <t>2021-02-05 10:46:55</t>
   </si>
   <si>
     <t>Mobile:</t>
@@ -53,7 +53,7 @@
     <t>Destination:</t>
   </si>
   <si>
-    <t>REX</t>
+    <t>MED-Henakiya-Aqda</t>
   </si>
   <si>
     <t>Email:</t>
@@ -77,13 +77,16 @@
     <t>UOM:</t>
   </si>
   <si>
-    <t>PFIZER_COVID-19</t>
-  </si>
-  <si>
-    <t>Pfizer covid-19 vaccine</t>
-  </si>
-  <si>
-    <t>Covid Vaccine</t>
+    <t>4214252314900</t>
+  </si>
+  <si>
+    <t>SYRINGE HYPO 1.0ML W/26G X 3/8IN NEEDLE</t>
+  </si>
+  <si>
+    <t>Vaccine Kit</t>
+  </si>
+  <si>
+    <t>BOX7788</t>
   </si>
 </sst>
 </file>
@@ -172,7 +175,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="17.01171875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="25.19921875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="25.51953125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="19.75390625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="43.95703125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="8.28125" customWidth="true" bestFit="true"/>
@@ -262,9 +265,11 @@
         <v>23</v>
       </c>
       <c r="D7" t="n" s="3">
-        <v>1410.0</v>
-      </c>
-      <c r="E7" s="3"/>
+        <v>55.0</v>
+      </c>
+      <c r="E7" t="s" s="3">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
